--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Robo2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Robo2-Robo2.xlsx
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="H2">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="I2">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="J2">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N2">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O2">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P2">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q2">
-        <v>0.08193410090844443</v>
+        <v>0.006271953618777778</v>
       </c>
       <c r="R2">
-        <v>0.7374069081759999</v>
+        <v>0.056447582569</v>
       </c>
       <c r="S2">
-        <v>0.06103278096779807</v>
+        <v>0.006777246718032885</v>
       </c>
       <c r="T2">
-        <v>0.06103278096779807</v>
+        <v>0.006777246718032882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="H3">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="I3">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="J3">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>2.610326</v>
       </c>
       <c r="O3">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P3">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q3">
-        <v>0.2490610648915555</v>
+        <v>0.0689088359291111</v>
       </c>
       <c r="R3">
-        <v>2.241549584023999</v>
+        <v>0.6201795233619999</v>
       </c>
       <c r="S3">
-        <v>0.185525797593346</v>
+        <v>0.07446040110147401</v>
       </c>
       <c r="T3">
-        <v>0.185525797593346</v>
+        <v>0.07446040110147398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="H4">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="I4">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="J4">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -673,28 +673,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N4">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O4">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P4">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q4">
-        <v>0.0006572101013333332</v>
+        <v>0.001005388988333333</v>
       </c>
       <c r="R4">
-        <v>0.005914890912</v>
+        <v>0.009048500895</v>
       </c>
       <c r="S4">
-        <v>0.0004895563595592917</v>
+        <v>0.001086387055084169</v>
       </c>
       <c r="T4">
-        <v>0.0004895563595592917</v>
+        <v>0.001086387055084168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>2.610326</v>
       </c>
       <c r="I5">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="J5">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N5">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O5">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P5">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q5">
-        <v>0.2490610648915555</v>
+        <v>0.0689088359291111</v>
       </c>
       <c r="R5">
-        <v>2.241549584023999</v>
+        <v>0.6201795233619999</v>
       </c>
       <c r="S5">
-        <v>0.185525797593346</v>
+        <v>0.07446040110147401</v>
       </c>
       <c r="T5">
-        <v>0.185525797593346</v>
+        <v>0.07446040110147398</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>2.610326</v>
       </c>
       <c r="I6">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="J6">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>2.610326</v>
       </c>
       <c r="O6">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P6">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q6">
         <v>0.7570890918084442</v>
@@ -815,10 +815,10 @@
         <v>6.813801826275999</v>
       </c>
       <c r="S6">
-        <v>0.5639563039214562</v>
+        <v>0.8180831483440012</v>
       </c>
       <c r="T6">
-        <v>0.5639563039214562</v>
+        <v>0.818083148344001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>2.610326</v>
       </c>
       <c r="I7">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="J7">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -859,28 +859,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N7">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O7">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P7">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q7">
-        <v>0.001997769498666666</v>
+        <v>0.01104602952333333</v>
       </c>
       <c r="R7">
-        <v>0.017979925488</v>
+        <v>0.09941426570999999</v>
       </c>
       <c r="S7">
-        <v>0.001488140186862097</v>
+        <v>0.01193594083830191</v>
       </c>
       <c r="T7">
-        <v>0.001488140186862097</v>
+        <v>0.01193594083830191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="H8">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="I8">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="J8">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2862413333333333</v>
+        <v>0.07919566666666666</v>
       </c>
       <c r="N8">
-        <v>0.8587239999999999</v>
+        <v>0.237587</v>
       </c>
       <c r="O8">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459106</v>
       </c>
       <c r="P8">
-        <v>0.2470481349207034</v>
+        <v>0.08232403487459104</v>
       </c>
       <c r="Q8">
-        <v>0.0006572101013333332</v>
+        <v>0.001005388988333333</v>
       </c>
       <c r="R8">
-        <v>0.005914890912</v>
+        <v>0.009048500895</v>
       </c>
       <c r="S8">
-        <v>0.0004895563595592917</v>
+        <v>0.001086387055084169</v>
       </c>
       <c r="T8">
-        <v>0.0004895563595592917</v>
+        <v>0.001086387055084168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="H9">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="I9">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="J9">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>2.610326</v>
       </c>
       <c r="O9">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837771</v>
       </c>
       <c r="P9">
-        <v>0.7509702417016644</v>
+        <v>0.9044794902837769</v>
       </c>
       <c r="Q9">
-        <v>0.001997769498666666</v>
+        <v>0.01104602952333333</v>
       </c>
       <c r="R9">
-        <v>0.017979925488</v>
+        <v>0.09941426570999999</v>
       </c>
       <c r="S9">
-        <v>0.001488140186862097</v>
+        <v>0.01193594083830191</v>
       </c>
       <c r="T9">
-        <v>0.001488140186862097</v>
+        <v>0.01193594083830191</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="H10">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="I10">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="J10">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1045,28 +1045,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.002296</v>
+        <v>0.012695</v>
       </c>
       <c r="N10">
-        <v>0.006888</v>
+        <v>0.038085</v>
       </c>
       <c r="O10">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="P10">
-        <v>0.001981623377632167</v>
+        <v>0.01319647484163191</v>
       </c>
       <c r="Q10">
-        <v>5.271615999999999E-06</v>
+        <v>0.000161163025</v>
       </c>
       <c r="R10">
-        <v>4.7444544E-05</v>
+        <v>0.001450467225</v>
       </c>
       <c r="S10">
-        <v>3.92683121077832E-06</v>
+        <v>0.0001741469482458239</v>
       </c>
       <c r="T10">
-        <v>3.92683121077832E-06</v>
+        <v>0.0001741469482458239</v>
       </c>
     </row>
   </sheetData>
